--- a/upload/MarintheMulder.xls.xlsx
+++ b/upload/MarintheMulder.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>17-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
